--- a/NformTester/NformTester/Keywordscripts/600.20.30.70_ConfigureWritedataAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.70_ConfigureWritedataAction.xlsx
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7527" uniqueCount="861">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4142,7 +4142,35 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4881,10 +4909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5094,7 +5122,7 @@
         <v>768</v>
       </c>
       <c r="B7" s="27">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="24">
         <v>6</v>
@@ -6686,14 +6714,12 @@
         <v>306</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H69" s="21" t="s">
-        <v>836</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" s="24"/>
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
@@ -6706,13 +6732,13 @@
         <v>69</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>783</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>306</v>
+        <v>791</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>2</v>
@@ -6730,13 +6756,13 @@
         <v>70</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>783</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>827</v>
+        <v>791</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>2</v>
@@ -6754,16 +6780,20 @@
         <v>71</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>756</v>
-      </c>
-      <c r="F72" s="24">
-        <v>5</v>
-      </c>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
+        <v>306</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>836</v>
+      </c>
       <c r="I72" s="24"/>
       <c r="J72" s="24"/>
       <c r="K72" s="24"/>
@@ -6782,7 +6812,7 @@
         <v>306</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G73" s="24" t="s">
         <v>2</v>
@@ -6795,16 +6825,22 @@
       <c r="M73" s="24"/>
       <c r="N73" s="26"/>
     </row>
-    <row r="74" spans="3:14" s="17" customFormat="1" ht="15">
+    <row r="74" spans="3:14" s="17" customFormat="1">
       <c r="C74" s="24">
         <v>73</v>
       </c>
-      <c r="D74" s="25" t="s">
-        <v>828</v>
-      </c>
-      <c r="E74" s="21"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
+      <c r="D74" s="28" t="s">
+        <v>783</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
       <c r="J74" s="24"/>
@@ -6818,10 +6854,10 @@
         <v>74</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>829</v>
+        <v>790</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>830</v>
+        <v>756</v>
       </c>
       <c r="F75" s="24">
         <v>5</v>
@@ -6843,40 +6879,34 @@
         <v>783</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G76" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
       <c r="J76" s="24"/>
       <c r="K76" s="24"/>
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
       <c r="N76" s="26"/>
     </row>
-    <row r="77" spans="3:14" s="17" customFormat="1">
+    <row r="77" spans="3:14" s="17" customFormat="1" ht="15">
       <c r="C77" s="24">
         <v>76</v>
       </c>
-      <c r="D77" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G77" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
+      <c r="D77" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
       <c r="J77" s="24"/>
       <c r="K77" s="24"/>
       <c r="L77" s="24"/>
@@ -6888,20 +6918,16 @@
         <v>77</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>832</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="G78" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="24" t="s">
-        <v>815</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="F78" s="24">
+        <v>5</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
       <c r="I78" s="24"/>
       <c r="J78" s="24"/>
       <c r="K78" s="24"/>
@@ -6909,24 +6935,24 @@
       <c r="M78" s="24"/>
       <c r="N78" s="26"/>
     </row>
-    <row r="79" spans="3:14" s="17" customFormat="1" ht="14.25">
+    <row r="79" spans="3:14" s="17" customFormat="1">
       <c r="C79" s="24">
         <v>78</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>831</v>
+        <v>783</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>832</v>
+        <v>19</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G79" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H79" s="33"/>
-      <c r="I79" s="24"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
@@ -6940,17 +6966,17 @@
       <c r="D80" s="28" t="s">
         <v>831</v>
       </c>
-      <c r="E80" s="24" t="s">
-        <v>585</v>
+      <c r="E80" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G80" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H80" s="21"/>
-      <c r="I80" s="24"/>
+      <c r="I80" s="21"/>
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
@@ -6968,34 +6994,38 @@
         <v>832</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>815</v>
+      </c>
+      <c r="I81" s="24"/>
       <c r="J81" s="24"/>
       <c r="K81" s="24"/>
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
       <c r="N81" s="26"/>
     </row>
-    <row r="82" spans="3:14" s="17" customFormat="1">
+    <row r="82" spans="3:14" s="17" customFormat="1" ht="14.25">
       <c r="C82" s="24">
         <v>81</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>790</v>
+        <v>831</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>830</v>
-      </c>
-      <c r="F82" s="24">
-        <v>3</v>
-      </c>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
+        <v>832</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" s="33"/>
       <c r="I82" s="24"/>
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
@@ -7003,35 +7033,105 @@
       <c r="M82" s="24"/>
       <c r="N82" s="26"/>
     </row>
+    <row r="83" spans="3:14" s="17" customFormat="1">
+      <c r="C83" s="24">
+        <v>82</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="21"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="26"/>
+    </row>
+    <row r="84" spans="3:14" s="17" customFormat="1">
+      <c r="C84" s="24">
+        <v>83</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="26"/>
+    </row>
+    <row r="85" spans="3:14" s="17" customFormat="1">
+      <c r="C85" s="24">
+        <v>84</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>790</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="F85" s="24">
+        <v>3</v>
+      </c>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="26"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N30">
-    <cfRule type="cellIs" dxfId="3" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="55" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="56" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23:N82">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N23:N85">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 F2:F40 F56:F82 F42:F54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 F2:F40 F42:F54 F56:F85">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(D2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5 E7:E82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5 E7:E85">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D51:D57 D82 D76 D59:D65 D68:D73 D43:D49 D36:D41 D24:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D51:D57 D85 D79 D59:D65 D24:D34 D43:D49 D36:D41 D68:D76">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G77 G79:G82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G82:G85 G2:G80">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.70_ConfigureWritedataAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.70_ConfigureWritedataAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-2415" yWindow="15" windowWidth="15480" windowHeight="11655"/>
@@ -1205,12 +1205,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7527" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7527" uniqueCount="862">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3659,10 +3659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3789,10 +3785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Script Info</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3866,6 +3858,17 @@
   </si>
   <si>
     <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+  </si>
+  <si>
+    <t>$NAME_ACTION_SearchStart_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4137,40 +4140,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4625,7 +4600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4911,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4930,55 +4905,55 @@
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1">
       <c r="A1" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>841</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="D1" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" s="17" customFormat="1" ht="15">
       <c r="A2" s="15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C2" s="24">
         <v>1</v>
@@ -5001,10 +4976,10 @@
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C3" s="24">
         <v>2</v>
@@ -5036,10 +5011,10 @@
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" ht="15">
       <c r="A4" s="15" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C4" s="24">
         <v>3</v>
@@ -5061,7 +5036,7 @@
     </row>
     <row r="5" spans="1:15" s="17" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B5" s="31">
         <v>41718</v>
@@ -5095,16 +5070,16 @@
     </row>
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="15" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C6" s="24">
         <v>5</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5150,7 +5125,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="15" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="24">
@@ -5179,7 +5154,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="15" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="24">
@@ -5229,7 +5204,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -5345,7 +5320,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="19"/>
@@ -5435,8 +5410,8 @@
       <c r="G17" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>841</v>
+      <c r="H17" s="24" t="s">
+        <v>860</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="19"/>
@@ -5608,7 +5583,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="24"/>
@@ -5686,7 +5661,7 @@
         <v>56</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
@@ -5763,7 +5738,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>807</v>
+        <v>861</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
@@ -5785,10 +5760,10 @@
         <v>394</v>
       </c>
       <c r="G30" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>808</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>809</v>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
@@ -5808,13 +5783,13 @@
         <v>391</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>56</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -5900,7 +5875,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
@@ -5951,7 +5926,7 @@
         <v>27</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -5972,7 +5947,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G38" s="24" t="s">
         <v>2</v>
@@ -5996,13 +5971,13 @@
         <v>19</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>3</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
@@ -6040,10 +6015,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>816</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>817</v>
       </c>
       <c r="F41" s="24">
         <v>2</v>
@@ -6062,7 +6037,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="24"/>
@@ -6110,7 +6085,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>2</v>
@@ -6140,7 +6115,7 @@
         <v>56</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -6250,7 +6225,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="24"/>
@@ -6268,7 +6243,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>19</v>
@@ -6292,13 +6267,13 @@
         <v>51</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>2</v>
@@ -6316,13 +6291,13 @@
         <v>52</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>57</v>
@@ -6344,7 +6319,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>19</v>
@@ -6368,10 +6343,10 @@
         <v>54</v>
       </c>
       <c r="D55" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>816</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>817</v>
       </c>
       <c r="F55" s="24">
         <v>2</v>
@@ -6393,16 +6368,16 @@
         <v>783</v>
       </c>
       <c r="E56" s="21" t="s">
+        <v>822</v>
+      </c>
+      <c r="F56" s="24" t="s">
         <v>823</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>824</v>
       </c>
       <c r="G56" s="24" t="s">
         <v>59</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="24"/>
@@ -6419,7 +6394,7 @@
         <v>783</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F57" s="24" t="s">
         <v>99</v>
@@ -6440,7 +6415,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
@@ -6458,7 +6433,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>19</v>
@@ -6482,7 +6457,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>19</v>
@@ -6506,7 +6481,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E61" s="21" t="s">
         <v>306</v>
@@ -6518,7 +6493,7 @@
         <v>56</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -6532,7 +6507,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>306</v>
@@ -6568,7 +6543,7 @@
         <v>56</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
@@ -6594,10 +6569,10 @@
         <v>7</v>
       </c>
       <c r="H64" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="I64" s="24" t="s">
         <v>825</v>
-      </c>
-      <c r="I64" s="24" t="s">
-        <v>826</v>
       </c>
       <c r="J64" s="24" t="b">
         <v>1</v>
@@ -6792,7 +6767,7 @@
         <v>56</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I72" s="24"/>
       <c r="J72" s="24"/>
@@ -6833,7 +6808,7 @@
         <v>783</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F74" s="24" t="s">
         <v>200</v>
@@ -6900,7 +6875,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E77" s="21"/>
       <c r="F77" s="24"/>
@@ -6918,10 +6893,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="E78" s="21" t="s">
         <v>829</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>830</v>
       </c>
       <c r="F78" s="24">
         <v>5</v>
@@ -6964,7 +6939,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E80" s="21" t="s">
         <v>19</v>
@@ -6988,10 +6963,10 @@
         <v>80</v>
       </c>
       <c r="D81" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="E81" s="21" t="s">
         <v>831</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>832</v>
       </c>
       <c r="F81" s="24" t="s">
         <v>578</v>
@@ -7000,7 +6975,7 @@
         <v>3</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
@@ -7014,10 +6989,10 @@
         <v>81</v>
       </c>
       <c r="D82" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>831</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>832</v>
       </c>
       <c r="F82" s="24" t="s">
         <v>184</v>
@@ -7038,7 +7013,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>585</v>
@@ -7062,10 +7037,10 @@
         <v>83</v>
       </c>
       <c r="D84" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="E84" s="21" t="s">
         <v>831</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>832</v>
       </c>
       <c r="F84" s="24" t="s">
         <v>99</v>
@@ -7089,7 +7064,7 @@
         <v>790</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F85" s="24">
         <v>3</v>
@@ -7106,18 +7081,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N30">
-    <cfRule type="cellIs" dxfId="7" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="55" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="56" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N85">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
